--- a/exposan/bsm2/data/bsm2p_init.xlsx
+++ b/exposan/bsm2/data/bsm2p_init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\bsm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA258CBD-8032-4F8B-81B2-0879884C46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264E944-8D18-4B17-B564-BEE3BEF5C6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24750" windowHeight="18450" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="asm" sheetId="1" r:id="rId1"/>
@@ -275,11 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67887DCA-7CBD-4529-953E-A8DE039190F5}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -688,139 +686,139 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>70</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>57.45</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>26.6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>25.19</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>5.6520000000000001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>84</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>94.1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>370</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>51.53</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>20</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>30</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>175</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>300</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>69.5852</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>57.004199999999997</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>26.596299999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>34.576000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0.1991</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>14.0077</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>89.923000000000002</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>50.216799999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>224.4676</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>31.997499999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>0.47560000000000002</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2">
         <v>0.1394</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="2">
         <v>24.408999999999999</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="2">
         <v>99.133399999999995</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
         <v>82.441500000000005</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="2">
         <v>449.95940000000002</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="2">
         <v>118.9924</v>
       </c>
     </row>
@@ -1368,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A4E84-05F6-482F-94AF-2C8CE149BF8E}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AK1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,13 +1502,16 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="J2">
-        <v>8.8999999999999996E-2</v>
+        <f>12*0.089</f>
+        <v>1.0680000000000001</v>
       </c>
       <c r="K2">
-        <v>6.6299999999999998E-2</v>
+        <f>14*0.0663</f>
+        <v>0.92819999999999991</v>
       </c>
       <c r="L2">
-        <v>2.8000000000000001E-2</v>
+        <f>31*0.028</f>
+        <v>0.86799999999999999</v>
       </c>
       <c r="M2">
         <v>0.66969999999999996</v>
@@ -1809,16 +1810,16 @@
       <c r="C2">
         <v>1.35E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>33.53</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>374.7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>20940</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>14.91</v>
       </c>
     </row>

--- a/exposan/bsm2/data/bsm2p_init.xlsx
+++ b/exposan/bsm2/data/bsm2p_init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\bsm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264E944-8D18-4B17-B564-BEE3BEF5C6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CBC00F-5E5A-4ED7-B8B1-B5492476A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24750" windowHeight="18450" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
+    <workbookView xWindow="5160" yWindow="5640" windowWidth="21255" windowHeight="14700" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="asm" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>S_O2</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>X_CaCO3</t>
+  </si>
+  <si>
+    <t>X_newb</t>
+  </si>
+  <si>
+    <t>X_MgCO3</t>
+  </si>
+  <si>
+    <t>X_AlOH</t>
+  </si>
+  <si>
+    <t>X_AlPO4</t>
+  </si>
+  <si>
+    <t>X_FeOH</t>
   </si>
 </sst>
 </file>
@@ -275,10 +293,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,15 +632,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67887DCA-7CBD-4529-953E-A8DE039190F5}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -685,8 +709,35 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -753,8 +804,35 @@
       <c r="V2" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -821,8 +899,35 @@
       <c r="V3" s="2">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -889,8 +994,35 @@
       <c r="V4">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -957,8 +1089,35 @@
       <c r="V5">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1025,8 +1184,35 @@
       <c r="V6">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1093,8 +1279,35 @@
       <c r="V7">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1161,8 +1374,35 @@
       <c r="V8">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1229,8 +1469,35 @@
       <c r="V9">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1297,58 +1564,35 @@
       <c r="V10">
         <v>118.9924</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="W10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1366,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A4E84-05F6-482F-94AF-2C8CE149BF8E}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>

--- a/exposan/bsm2/data/bsm2p_init.xlsx
+++ b/exposan/bsm2/data/bsm2p_init.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\bsm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CBC00F-5E5A-4ED7-B8B1-B5492476A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723514F-97B2-487C-A96F-3E59C1F607D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="5640" windowWidth="21255" windowHeight="14700" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="29445" windowHeight="15345" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="asm" sheetId="1" r:id="rId1"/>
-    <sheet name="adm" sheetId="2" r:id="rId2"/>
-    <sheet name="settler" sheetId="3" r:id="rId3"/>
-    <sheet name="others" sheetId="4" r:id="rId4"/>
+    <sheet name="asm2" sheetId="6" r:id="rId2"/>
+    <sheet name="adm" sheetId="2" r:id="rId3"/>
+    <sheet name="adm2" sheetId="5" r:id="rId4"/>
+    <sheet name="settler" sheetId="3" r:id="rId5"/>
+    <sheet name="others" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>S_O2</t>
   </si>
@@ -246,6 +248,12 @@
   </si>
   <si>
     <t>X_FeOH</t>
+  </si>
+  <si>
+    <t>S_h2</t>
+  </si>
+  <si>
+    <t>H2O</t>
   </si>
 </sst>
 </file>
@@ -634,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67887DCA-7CBD-4529-953E-A8DE039190F5}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,11 +1615,986 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84C1DB9-63E8-4585-98A4-57278B8222C3}">
+  <dimension ref="A1:AE20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2">
+        <v>57.45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25.19</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2">
+        <v>94.1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>370</v>
+      </c>
+      <c r="M2" s="2">
+        <v>51.53</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2">
+        <v>175</v>
+      </c>
+      <c r="U2" s="2">
+        <v>300</v>
+      </c>
+      <c r="V2" s="2">
+        <v>60</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>69.5852</v>
+      </c>
+      <c r="D3" s="2">
+        <v>57.004199999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>34.576000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.1991</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>14.0077</v>
+      </c>
+      <c r="J3" s="2">
+        <v>89.923000000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <v>50.216799999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>224.4676</v>
+      </c>
+      <c r="M3" s="2">
+        <v>31.997499999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.1394</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>24.408999999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>99.133399999999995</v>
+      </c>
+      <c r="T3" s="2">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U3" s="2">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V3" s="2">
+        <v>118.9924</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>4.9268999999999998</v>
+      </c>
+      <c r="D4">
+        <v>15.1297</v>
+      </c>
+      <c r="E4">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F4">
+        <v>18.388400000000001</v>
+      </c>
+      <c r="G4">
+        <v>8.7476000000000003</v>
+      </c>
+      <c r="H4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="I4">
+        <v>24.657699999999998</v>
+      </c>
+      <c r="J4">
+        <v>78.586799999999997</v>
+      </c>
+      <c r="K4">
+        <v>1823.9622999999999</v>
+      </c>
+      <c r="L4">
+        <v>131.804</v>
+      </c>
+      <c r="M4">
+        <v>1013</v>
+      </c>
+      <c r="N4">
+        <v>400</v>
+      </c>
+      <c r="O4">
+        <v>278.53640000000001</v>
+      </c>
+      <c r="P4">
+        <v>44.267299999999999</v>
+      </c>
+      <c r="Q4">
+        <v>55</v>
+      </c>
+      <c r="R4">
+        <v>28.996300000000002</v>
+      </c>
+      <c r="S4">
+        <v>101.9855</v>
+      </c>
+      <c r="T4">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U4">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V4">
+        <v>118.9924</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.1234</v>
+      </c>
+      <c r="D5">
+        <v>4.6102999999999996</v>
+      </c>
+      <c r="E5">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F5">
+        <v>19.059200000000001</v>
+      </c>
+      <c r="G5">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="H5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I5">
+        <v>37.046599999999998</v>
+      </c>
+      <c r="J5">
+        <v>79.785799999999995</v>
+      </c>
+      <c r="K5">
+        <v>1823.9645</v>
+      </c>
+      <c r="L5">
+        <v>115.021</v>
+      </c>
+      <c r="M5">
+        <v>1014</v>
+      </c>
+      <c r="N5">
+        <v>400</v>
+      </c>
+      <c r="O5">
+        <v>266.25779999999997</v>
+      </c>
+      <c r="P5">
+        <v>74.996499999999997</v>
+      </c>
+      <c r="Q5">
+        <v>55</v>
+      </c>
+      <c r="R5">
+        <v>34.1586</v>
+      </c>
+      <c r="S5">
+        <v>105.1951</v>
+      </c>
+      <c r="T5">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U5">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V5">
+        <v>118.9924</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="C6">
+        <v>0.4798</v>
+      </c>
+      <c r="D6">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="E6">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F6">
+        <v>7.4791999999999996</v>
+      </c>
+      <c r="G6">
+        <v>13.0839</v>
+      </c>
+      <c r="H6">
+        <v>1.0373000000000001</v>
+      </c>
+      <c r="I6">
+        <v>12.245699999999999</v>
+      </c>
+      <c r="J6">
+        <v>69.465100000000007</v>
+      </c>
+      <c r="K6">
+        <v>1832.5407</v>
+      </c>
+      <c r="L6">
+        <v>62.077399999999997</v>
+      </c>
+      <c r="M6">
+        <v>1030</v>
+      </c>
+      <c r="N6">
+        <v>410</v>
+      </c>
+      <c r="O6">
+        <v>290.70609999999999</v>
+      </c>
+      <c r="P6">
+        <v>25.902899999999999</v>
+      </c>
+      <c r="Q6">
+        <v>56</v>
+      </c>
+      <c r="R6">
+        <v>23.879799999999999</v>
+      </c>
+      <c r="S6">
+        <v>98.804400000000001</v>
+      </c>
+      <c r="T6">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U6">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V6">
+        <v>118.9924</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1E-4</v>
+      </c>
+      <c r="C7">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.3836</v>
+      </c>
+      <c r="E7">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F7">
+        <v>7.4557000000000002</v>
+      </c>
+      <c r="G7">
+        <v>13.952299999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="I7">
+        <v>12.051500000000001</v>
+      </c>
+      <c r="J7">
+        <v>70.103300000000004</v>
+      </c>
+      <c r="K7">
+        <v>1832.6564000000001</v>
+      </c>
+      <c r="L7">
+        <v>56.1325</v>
+      </c>
+      <c r="M7">
+        <v>1031</v>
+      </c>
+      <c r="N7">
+        <v>410</v>
+      </c>
+      <c r="O7">
+        <v>290.87889999999999</v>
+      </c>
+      <c r="P7">
+        <v>26.580500000000001</v>
+      </c>
+      <c r="Q7">
+        <v>56</v>
+      </c>
+      <c r="R7">
+        <v>23.807200000000002</v>
+      </c>
+      <c r="S7">
+        <v>98.759200000000007</v>
+      </c>
+      <c r="T7">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U7">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V7">
+        <v>118.9924</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.4078</v>
+      </c>
+      <c r="C8">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="D8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F8">
+        <v>3.8313000000000001</v>
+      </c>
+      <c r="G8">
+        <v>12.9102</v>
+      </c>
+      <c r="H8">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="I8">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="J8">
+        <v>65.202399999999997</v>
+      </c>
+      <c r="K8">
+        <v>1834.2221</v>
+      </c>
+      <c r="L8">
+        <v>47.112699999999997</v>
+      </c>
+      <c r="M8">
+        <v>1033</v>
+      </c>
+      <c r="N8">
+        <v>413</v>
+      </c>
+      <c r="O8">
+        <v>299.64010000000002</v>
+      </c>
+      <c r="P8">
+        <v>9.6491000000000007</v>
+      </c>
+      <c r="Q8">
+        <v>56</v>
+      </c>
+      <c r="R8">
+        <v>20.123699999999999</v>
+      </c>
+      <c r="S8">
+        <v>96.469099999999997</v>
+      </c>
+      <c r="T8">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U8">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V8">
+        <v>118.9924</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1.1736</v>
+      </c>
+      <c r="C9">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="D9">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E9">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="G9">
+        <v>12.477600000000001</v>
+      </c>
+      <c r="H9">
+        <v>4.4699</v>
+      </c>
+      <c r="I9">
+        <v>0.69189999999999996</v>
+      </c>
+      <c r="J9">
+        <v>60.955800000000004</v>
+      </c>
+      <c r="K9">
+        <v>1836.0331000000001</v>
+      </c>
+      <c r="L9">
+        <v>40.818800000000003</v>
+      </c>
+      <c r="M9">
+        <v>1033</v>
+      </c>
+      <c r="N9">
+        <v>413</v>
+      </c>
+      <c r="O9">
+        <v>302.08850000000001</v>
+      </c>
+      <c r="P9">
+        <v>2.4420999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>57</v>
+      </c>
+      <c r="R9">
+        <v>19.0943</v>
+      </c>
+      <c r="S9">
+        <v>95.829099999999997</v>
+      </c>
+      <c r="T9">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U9">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V9">
+        <v>118.9924</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1.0591999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.311</v>
+      </c>
+      <c r="D10">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E10">
+        <v>26.596299999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="G10">
+        <v>12.450100000000001</v>
+      </c>
+      <c r="H10">
+        <v>5.2125000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.8256</v>
+      </c>
+      <c r="J10">
+        <v>59.654000000000003</v>
+      </c>
+      <c r="K10">
+        <v>1837.8286000000001</v>
+      </c>
+      <c r="L10">
+        <v>36.499499999999998</v>
+      </c>
+      <c r="M10">
+        <v>1033</v>
+      </c>
+      <c r="N10">
+        <v>412</v>
+      </c>
+      <c r="O10">
+        <v>302.05119999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.62460000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>57</v>
+      </c>
+      <c r="R10">
+        <v>19.11</v>
+      </c>
+      <c r="S10">
+        <v>95.838800000000006</v>
+      </c>
+      <c r="T10">
+        <v>82.441500000000005</v>
+      </c>
+      <c r="U10">
+        <v>449.95940000000002</v>
+      </c>
+      <c r="V10">
+        <v>118.9924</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A4E84-05F6-482F-94AF-2C8CE149BF8E}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +2812,285 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADEEAAA-987D-43CA-A836-37D3B86B2368}">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C2">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.126</v>
+      </c>
+      <c r="E2">
+        <v>1.29E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.8308999999999998E-7</v>
+      </c>
+      <c r="J2">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="K2">
+        <f>0.089*12</f>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="L2">
+        <f>0.0663*14</f>
+        <v>0.92819999999999991</v>
+      </c>
+      <c r="M2">
+        <f>0.028*31</f>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="N2">
+        <v>2.63E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.302</v>
+      </c>
+      <c r="P2">
+        <v>1.3613</v>
+      </c>
+      <c r="Q2">
+        <v>1.8127</v>
+      </c>
+      <c r="R2">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="S2">
+        <v>0.4017</v>
+      </c>
+      <c r="T2">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="V2">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="W2">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>12.9232</v>
+      </c>
+      <c r="Z2">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>1.29E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1E-4</v>
+      </c>
+      <c r="AE2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>0.0161</f>
+        <v>1.61E-2</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1E-3</v>
+      </c>
+      <c r="AO2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AP2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA96946B-17C1-41F5-A32B-CE0A064A22AA}">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -2017,7 +3278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AABAC6-0393-4FAA-A818-3D4621797738}">
   <dimension ref="B1:H13"/>
   <sheetViews>

--- a/exposan/bsm2/data/bsm2p_init.xlsx
+++ b/exposan/bsm2/data/bsm2p_init.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\bsm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723514F-97B2-487C-A96F-3E59C1F607D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C58A187-3064-45DD-A77F-D6F43FE36942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="29445" windowHeight="15345" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="asm" sheetId="1" r:id="rId1"/>
     <sheet name="asm2" sheetId="6" r:id="rId2"/>
-    <sheet name="adm" sheetId="2" r:id="rId3"/>
-    <sheet name="adm2" sheetId="5" r:id="rId4"/>
-    <sheet name="settler" sheetId="3" r:id="rId5"/>
-    <sheet name="others" sheetId="4" r:id="rId6"/>
+    <sheet name="asm3" sheetId="7" r:id="rId3"/>
+    <sheet name="adm" sheetId="2" r:id="rId4"/>
+    <sheet name="adm2" sheetId="5" r:id="rId5"/>
+    <sheet name="settler" sheetId="3" r:id="rId6"/>
+    <sheet name="others" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="71">
   <si>
     <t>S_O2</t>
   </si>
@@ -642,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67887DCA-7CBD-4529-953E-A8DE039190F5}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84C1DB9-63E8-4585-98A4-57278B8222C3}">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,91 +1635,91 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
       <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1729,44 +1730,44 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25.19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="G2" s="2">
         <v>70</v>
       </c>
-      <c r="D2" s="2">
+      <c r="H2" s="2">
         <v>57.45</v>
       </c>
-      <c r="E2" s="2">
+      <c r="I2" s="2">
         <v>26.6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>25.19</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5.6520000000000001</v>
       </c>
       <c r="J2" s="2">
         <v>84</v>
       </c>
       <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
         <v>94.1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>370</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>51.53</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
@@ -1774,46 +1775,46 @@
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2">
+        <v>60</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
         <v>175</v>
       </c>
-      <c r="U2" s="2">
+      <c r="AE2" s="2">
         <v>300</v>
-      </c>
-      <c r="V2" s="2">
-        <v>60</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1821,94 +1822,124 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>1.6899999999999998E-2</v>
+        <f ca="1">asm!B3*(0.9+0.2*RAND())</f>
+        <v>1.5607699863394215E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>69.5852</v>
+        <f ca="1">asm!G3*(0.9+0.2*RAND())</f>
+        <v>0.2091565502455541</v>
       </c>
       <c r="D3" s="2">
-        <v>57.004199999999997</v>
+        <f ca="1">asm!F3*(0.9+0.2*RAND())</f>
+        <v>35.261357643400416</v>
       </c>
       <c r="E3" s="2">
-        <v>26.596299999999999</v>
+        <f ca="1">asm!H3*(0.9+0.2*RAND())</f>
+        <v>8.8950753869891361E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>34.576000000000001</v>
+        <f ca="1">asm!I3*(0.9+0.2*RAND())</f>
+        <v>15.203591699274758</v>
       </c>
       <c r="G3" s="2">
-        <v>0.1991</v>
+        <f ca="1">asm!C3*(0.9+0.2*RAND())</f>
+        <v>73.749867458966563</v>
       </c>
       <c r="H3" s="2">
-        <v>8.3400000000000002E-2</v>
+        <f ca="1">asm!D3*(0.9+0.2*RAND())</f>
+        <v>57.536300187276744</v>
       </c>
       <c r="I3" s="2">
-        <v>14.0077</v>
+        <f ca="1">asm!E3*(0.9+0.2*RAND())</f>
+        <v>28.511921509327713</v>
       </c>
       <c r="J3" s="2">
-        <v>89.923000000000002</v>
+        <f ca="1">asm!J3*(0.9+0.2*RAND())</f>
+        <v>82.972333304834748</v>
       </c>
       <c r="K3" s="2">
-        <v>50.216799999999999</v>
+        <f ca="1">asm!R3*(0.9+0.2*RAND())</f>
+        <v>22.616725696363588</v>
       </c>
       <c r="L3" s="2">
-        <v>224.4676</v>
+        <f ca="1">asm!S3*(0.9+0.2*RAND())</f>
+        <v>106.13250637132549</v>
       </c>
       <c r="M3" s="2">
-        <v>31.997499999999999</v>
+        <f ca="1">asm!K3*(0.9+0.2*RAND())</f>
+        <v>47.747736477077382</v>
       </c>
       <c r="N3" s="2">
-        <v>0.47560000000000002</v>
+        <f ca="1">asm!L3*(0.9+0.2*RAND())</f>
+        <v>236.9865770076527</v>
       </c>
       <c r="O3" s="2">
-        <v>0.1394</v>
+        <f ca="1">asm!M3*(0.9+0.2*RAND())</f>
+        <v>30.499648718087236</v>
       </c>
       <c r="P3" s="2">
-        <v>2.9999999999999997E-4</v>
+        <f ca="1">asm!N3*(0.9+0.2*RAND())</f>
+        <v>0.5096348807633384</v>
       </c>
       <c r="Q3" s="2">
-        <v>5.3199999999999997E-2</v>
+        <f ca="1">asm!O3*(0.9+0.2*RAND())</f>
+        <v>0.14104728501674885</v>
       </c>
       <c r="R3" s="2">
-        <v>24.408999999999999</v>
+        <f ca="1">asm!P3*(0.9+0.2*RAND())</f>
+        <v>2.7902005691226315E-4</v>
       </c>
       <c r="S3" s="2">
-        <v>99.133399999999995</v>
+        <f ca="1">asm!Q3*(0.9+0.2*RAND())</f>
+        <v>4.9666389892789327E-2</v>
       </c>
       <c r="T3" s="2">
-        <v>82.441500000000005</v>
+        <f ca="1">asm!V3*(0.9+0.2*RAND())</f>
+        <v>107.14046234867331</v>
       </c>
       <c r="U3" s="2">
-        <v>449.95940000000002</v>
+        <f ca="1">asm!W3*(0.9+0.2*RAND())</f>
+        <v>1.0218570156243193E-5</v>
       </c>
       <c r="V3" s="2">
-        <v>118.9924</v>
-      </c>
-      <c r="W3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>1.0000000000000001E-5</v>
+        <f ca="1">asm!X3*(0.9+0.2*RAND())</f>
+        <v>9.1684845600850305E-6</v>
+      </c>
+      <c r="W3" s="2">
+        <f ca="1">asm!Y3*(0.9+0.2*RAND())</f>
+        <v>1.0420116532394427E-5</v>
+      </c>
+      <c r="X3" s="2">
+        <f ca="1">asm!Z3*(0.9+0.2*RAND())</f>
+        <v>9.2789079022591763E-6</v>
+      </c>
+      <c r="Y3" s="2">
+        <f ca="1">asm!AA3*(0.9+0.2*RAND())</f>
+        <v>1.0486397488525624E-5</v>
+      </c>
+      <c r="Z3" s="2">
+        <f ca="1">asm!AB3*(0.9+0.2*RAND())</f>
+        <v>9.2232292058047584E-6</v>
+      </c>
+      <c r="AA3" s="2">
+        <f ca="1">asm!AC3*(0.9+0.2*RAND())</f>
+        <v>9.5152943119096189E-6</v>
+      </c>
+      <c r="AB3" s="2">
+        <f ca="1">asm!AD3*(0.9+0.2*RAND())</f>
+        <v>1.0012980145683672E-5</v>
+      </c>
+      <c r="AC3" s="2">
+        <f ca="1">asm!AE3*(0.9+0.2*RAND())</f>
+        <v>1.0956904666274584E-5</v>
+      </c>
+      <c r="AD3" s="2">
+        <f ca="1">asm!T3*(0.9+0.2*RAND())</f>
+        <v>83.895198675270834</v>
+      </c>
+      <c r="AE3" s="2">
+        <f ca="1">asm!U3*(0.9+0.2*RAND())</f>
+        <v>472.01617630405178</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1916,189 +1947,189 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>1E-3</v>
+        <v>3.0474042058124102E-3</v>
       </c>
       <c r="C4">
-        <v>4.9268999999999998</v>
+        <v>11.714418849847901</v>
       </c>
       <c r="D4">
-        <v>15.1297</v>
+        <v>18.8903691863988</v>
       </c>
       <c r="E4">
-        <v>26.596299999999999</v>
+        <v>0.11946083149644</v>
       </c>
       <c r="F4">
-        <v>18.388400000000001</v>
+        <v>13.9810263597446</v>
       </c>
       <c r="G4">
-        <v>8.7476000000000003</v>
+        <v>6.5555411612357402</v>
       </c>
       <c r="H4">
-        <v>5.4899999999999997E-2</v>
+        <v>24.574442076447799</v>
       </c>
       <c r="I4">
-        <v>24.657699999999998</v>
+        <v>26.593511091194799</v>
       </c>
       <c r="J4">
-        <v>78.586799999999997</v>
+        <v>46.417063153684701</v>
       </c>
       <c r="K4">
-        <v>1823.9622999999999</v>
+        <v>23.325330665950201</v>
       </c>
       <c r="L4">
-        <v>131.804</v>
+        <v>30.394208886020799</v>
       </c>
       <c r="M4">
-        <v>1013</v>
+        <v>1192.9927654390001</v>
       </c>
       <c r="N4">
-        <v>400</v>
+        <v>106.103655323589</v>
       </c>
       <c r="O4">
-        <v>278.53640000000001</v>
+        <v>1587.47408876292</v>
       </c>
       <c r="P4">
-        <v>44.267299999999999</v>
+        <v>326.15633508048103</v>
       </c>
       <c r="Q4">
-        <v>55</v>
+        <v>93.018247423488702</v>
       </c>
       <c r="R4">
-        <v>28.996300000000002</v>
+        <v>14.8592292888102</v>
       </c>
       <c r="S4">
-        <v>101.9855</v>
+        <v>86.981310436304597</v>
       </c>
       <c r="T4">
-        <v>82.441500000000005</v>
+        <v>59.759826732459601</v>
       </c>
       <c r="U4">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V4">
-        <v>118.9924</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.2343485435841597E-2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4.9248224056000201E-9</v>
+      </c>
+      <c r="W4">
+        <v>0.56676361511683904</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.5741800565300101E-13</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2.91456298717996E-12</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.9116388217527898E-12</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2.9128622440031698E-12</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2.91438458769372E-12</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2.4790217734229101E-11</v>
+      </c>
+      <c r="AD4">
+        <v>174.957309519863</v>
+      </c>
+      <c r="AE4">
+        <v>299.92681718591899</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>6.4568713975449E-6</v>
       </c>
       <c r="C5">
-        <v>1.1234</v>
+        <v>11.989923551188401</v>
       </c>
       <c r="D5">
-        <v>4.6102999999999996</v>
+        <v>19.4825115853196</v>
       </c>
       <c r="E5">
-        <v>26.596299999999999</v>
+        <v>2.4901116539098301E-3</v>
       </c>
       <c r="F5">
-        <v>19.059200000000001</v>
+        <v>20.477909859324601</v>
       </c>
       <c r="G5">
-        <v>8.8010000000000002</v>
+        <v>1.2578842972998501</v>
       </c>
       <c r="H5">
-        <v>1.5E-3</v>
+        <v>26.7107297134927</v>
       </c>
       <c r="I5">
-        <v>37.046599999999998</v>
+        <v>26.593511083615098</v>
       </c>
       <c r="J5">
-        <v>79.785799999999995</v>
+        <v>43.564939222326799</v>
       </c>
       <c r="K5">
-        <v>1823.9645</v>
+        <v>25.9920912851304</v>
       </c>
       <c r="L5">
-        <v>115.021</v>
+        <v>32.0519661682183</v>
       </c>
       <c r="M5">
-        <v>1014</v>
+        <v>1192.9956796459401</v>
       </c>
       <c r="N5">
-        <v>400</v>
+        <v>92.376790791656504</v>
       </c>
       <c r="O5">
-        <v>266.25779999999997</v>
+        <v>1587.98516130302</v>
       </c>
       <c r="P5">
-        <v>74.996499999999997</v>
+        <v>326.17160592706801</v>
       </c>
       <c r="Q5">
-        <v>55</v>
+        <v>86.616344570805794</v>
       </c>
       <c r="R5">
-        <v>34.1586</v>
+        <v>30.881521392260399</v>
       </c>
       <c r="S5">
-        <v>105.1951</v>
+        <v>86.981030699767302</v>
       </c>
       <c r="T5">
-        <v>82.441500000000005</v>
+        <v>59.759800577133703</v>
       </c>
       <c r="U5">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V5">
-        <v>118.9924</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.2355508241598697E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4.9309760811529299E-9</v>
+      </c>
+      <c r="W5">
+        <v>0.56675975737903295</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2.5791553770738401E-13</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2.9184287849342798E-12</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2.9155046152974502E-12</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2.9167280464293702E-12</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2.9182503806677198E-12</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2.48216641747163E-11</v>
+      </c>
+      <c r="AD5">
+        <v>174.95730946974999</v>
+      </c>
+      <c r="AE5">
+        <v>299.92681710062402</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -2106,94 +2137,94 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>6.4000000000000003E-3</v>
+        <v>2.1525875171421599E-2</v>
       </c>
       <c r="C6">
-        <v>0.4798</v>
+        <v>15.5685869000007</v>
       </c>
       <c r="D6">
-        <v>0.22409999999999999</v>
+        <v>7.2583016613873799</v>
       </c>
       <c r="E6">
-        <v>26.596299999999999</v>
+        <v>3.0239073683853301</v>
       </c>
       <c r="F6">
-        <v>7.4791999999999996</v>
+        <v>10.1012593046304</v>
       </c>
       <c r="G6">
-        <v>13.0839</v>
+        <v>0.64712695955556698</v>
       </c>
       <c r="H6">
-        <v>1.0373000000000001</v>
+        <v>0.731912466061301</v>
       </c>
       <c r="I6">
-        <v>12.245699999999999</v>
+        <v>26.5935110241168</v>
       </c>
       <c r="J6">
-        <v>69.465100000000007</v>
+        <v>20.058538826026101</v>
       </c>
       <c r="K6">
-        <v>1832.5407</v>
+        <v>21.805367005231201</v>
       </c>
       <c r="L6">
-        <v>62.077399999999997</v>
+        <v>29.4493128048952</v>
       </c>
       <c r="M6">
-        <v>1030</v>
+        <v>1200.48397001649</v>
       </c>
       <c r="N6">
-        <v>410</v>
+        <v>48.576485920317801</v>
       </c>
       <c r="O6">
-        <v>290.70609999999999</v>
+        <v>1603.62852840702</v>
       </c>
       <c r="P6">
-        <v>25.902899999999999</v>
+        <v>333.32611541131598</v>
       </c>
       <c r="Q6">
-        <v>56</v>
+        <v>96.666715442376102</v>
       </c>
       <c r="R6">
-        <v>23.879799999999999</v>
+        <v>11.250868921209401</v>
       </c>
       <c r="S6">
-        <v>98.804400000000001</v>
+        <v>88.594371979443807</v>
       </c>
       <c r="T6">
-        <v>82.441500000000005</v>
+        <v>59.759596413934602</v>
       </c>
       <c r="U6">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V6">
-        <v>118.9924</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.2449809162469298E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4.9793478783085098E-9</v>
+      </c>
+      <c r="W6">
+        <v>0.56672947710173005</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2.6187111662248002E-13</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2.9488560934195098E-12</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.9459318910550898E-12</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2.94715539276408E-12</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2.94867765135778E-12</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2.50689356105208E-11</v>
+      </c>
+      <c r="AD6">
+        <v>174.95730907470099</v>
+      </c>
+      <c r="AE6">
+        <v>299.92681643170999</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -2201,94 +2232,94 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>1E-4</v>
+        <v>3.64233312576509E-4</v>
       </c>
       <c r="C7">
-        <v>0.49080000000000001</v>
+        <v>16.779808692809102</v>
       </c>
       <c r="D7">
-        <v>0.3836</v>
+        <v>7.1258436667881098</v>
       </c>
       <c r="E7">
-        <v>26.596299999999999</v>
+        <v>1.70307941510101</v>
       </c>
       <c r="F7">
-        <v>7.4557000000000002</v>
+        <v>8.8923058479179904</v>
       </c>
       <c r="G7">
-        <v>13.952299999999999</v>
+        <v>0.39363167940083299</v>
       </c>
       <c r="H7">
-        <v>0.16930000000000001</v>
+        <v>0.16377716119820199</v>
       </c>
       <c r="I7">
-        <v>12.051500000000001</v>
+        <v>26.593511019507499</v>
       </c>
       <c r="J7">
-        <v>70.103300000000004</v>
+        <v>20.2304195315781</v>
       </c>
       <c r="K7">
-        <v>1832.6564000000001</v>
+        <v>21.3197718849121</v>
       </c>
       <c r="L7">
-        <v>56.1325</v>
+        <v>29.147446323464099</v>
       </c>
       <c r="M7">
-        <v>1031</v>
+        <v>1200.7560338830999</v>
       </c>
       <c r="N7">
-        <v>410</v>
+        <v>44.185744745364801</v>
       </c>
       <c r="O7">
-        <v>290.87889999999999</v>
+        <v>1605.6195656831601</v>
       </c>
       <c r="P7">
-        <v>26.580500000000001</v>
+        <v>334.49491215352401</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>97.8324153515875</v>
       </c>
       <c r="R7">
-        <v>23.807200000000002</v>
+        <v>9.2708177866210697</v>
       </c>
       <c r="S7">
-        <v>98.759200000000007</v>
+        <v>88.565441121298093</v>
       </c>
       <c r="T7">
-        <v>82.441500000000005</v>
+        <v>59.759580514525403</v>
       </c>
       <c r="U7">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V7">
-        <v>118.9924</v>
-      </c>
-      <c r="W7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.2457147812730597E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4.9831109675272198E-9</v>
+      </c>
+      <c r="W7">
+        <v>0.56672712090363497</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2.6217830403540701E-13</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2.9512227089781101E-12</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2.9482985040429101E-12</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2.94952201132764E-12</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2.9510442640735798E-12</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2.5088171121562199E-11</v>
+      </c>
+      <c r="AD7">
+        <v>174.95730904396899</v>
+      </c>
+      <c r="AE7">
+        <v>299.926816379716</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -2296,94 +2327,94 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.4078</v>
+        <v>3.4087014628173198</v>
       </c>
       <c r="C8">
-        <v>0.34110000000000001</v>
+        <v>14.562662155920901</v>
       </c>
       <c r="D8">
-        <v>3.7999999999999999E-2</v>
+        <v>2.80396789146217</v>
       </c>
       <c r="E8">
-        <v>26.596299999999999</v>
+        <v>5.7703053500929702</v>
       </c>
       <c r="F8">
-        <v>3.8313000000000001</v>
+        <v>5.7663022533402604</v>
       </c>
       <c r="G8">
-        <v>12.9102</v>
+        <v>0.31053079106644299</v>
       </c>
       <c r="H8">
-        <v>1.9770000000000001</v>
+        <v>1.8683680536395599E-2</v>
       </c>
       <c r="I8">
-        <v>3.1339999999999999</v>
+        <v>26.5935110101913</v>
       </c>
       <c r="J8">
-        <v>65.202399999999997</v>
+        <v>3.1527118926041999</v>
       </c>
       <c r="K8">
-        <v>1834.2221</v>
+        <v>20.0333521904004</v>
       </c>
       <c r="L8">
-        <v>47.112699999999997</v>
+        <v>28.3477546584907</v>
       </c>
       <c r="M8">
-        <v>1033</v>
+        <v>1202.16848045137</v>
       </c>
       <c r="N8">
-        <v>413</v>
+        <v>36.326993213211701</v>
       </c>
       <c r="O8">
-        <v>299.64010000000002</v>
+        <v>1605.9559534970899</v>
       </c>
       <c r="P8">
-        <v>9.6491000000000007</v>
+        <v>336.75178105965301</v>
       </c>
       <c r="Q8">
-        <v>56</v>
+        <v>100.92055904562601</v>
       </c>
       <c r="R8">
-        <v>20.123699999999999</v>
+        <v>2.9556009152170102</v>
       </c>
       <c r="S8">
-        <v>96.469099999999997</v>
+        <v>89.364440513125004</v>
       </c>
       <c r="T8">
-        <v>82.441500000000005</v>
+        <v>59.759548692966199</v>
       </c>
       <c r="U8">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V8">
-        <v>118.9924</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.2471843306945497E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>4.9906484593148497E-9</v>
+      </c>
+      <c r="W8">
+        <v>0.56672240226555604</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2.62794444062592E-13</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2.9559638006753001E-12</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2.9530395905932002E-12</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2.9542631088832099E-12</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2.9557853498085E-12</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2.51267015214776E-11</v>
+      </c>
+      <c r="AD8">
+        <v>174.95730898241101</v>
+      </c>
+      <c r="AE8">
+        <v>299.92681627556999</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2391,94 +2422,94 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>1.1736</v>
+        <v>3.0819522088367099</v>
       </c>
       <c r="C9">
-        <v>0.29909999999999998</v>
+        <v>14.3155415132745</v>
       </c>
       <c r="D9">
-        <v>7.7999999999999996E-3</v>
+        <v>0.68538898759302502</v>
       </c>
       <c r="E9">
-        <v>26.596299999999999</v>
+        <v>7.9478041416710896</v>
       </c>
       <c r="F9">
-        <v>0.95520000000000005</v>
+        <v>4.9392620625966996</v>
       </c>
       <c r="G9">
-        <v>12.477600000000001</v>
+        <v>0.273086865116691</v>
       </c>
       <c r="H9">
-        <v>4.4699</v>
+        <v>5.3838600203315002E-3</v>
       </c>
       <c r="I9">
-        <v>0.69189999999999996</v>
+        <v>26.5935110009166</v>
       </c>
       <c r="J9">
-        <v>60.955800000000004</v>
+        <v>1.3782670399649</v>
       </c>
       <c r="K9">
-        <v>1836.0331000000001</v>
+        <v>19.671151862556101</v>
       </c>
       <c r="L9">
-        <v>40.818800000000003</v>
+        <v>28.122593122449</v>
       </c>
       <c r="M9">
-        <v>1033</v>
+        <v>1203.57628439425</v>
       </c>
       <c r="N9">
-        <v>413</v>
+        <v>30.996600223628601</v>
       </c>
       <c r="O9">
-        <v>302.08850000000001</v>
+        <v>1604.65819569635</v>
       </c>
       <c r="P9">
-        <v>2.4420999999999999</v>
+        <v>336.707349515641</v>
       </c>
       <c r="Q9">
-        <v>57</v>
+        <v>101.790009865736</v>
       </c>
       <c r="R9">
-        <v>19.0943</v>
+        <v>0.71187377729831702</v>
       </c>
       <c r="S9">
-        <v>95.829099999999997</v>
+        <v>89.705707575854802</v>
       </c>
       <c r="T9">
-        <v>82.441500000000005</v>
+        <v>59.759516851915102</v>
       </c>
       <c r="U9">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V9">
-        <v>118.9924</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.2486557020544898E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4.9981972816858502E-9</v>
+      </c>
+      <c r="W9">
+        <v>0.56671767736151302</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.63412344627296E-13</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2.9607127669273499E-12</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.9577885516918598E-12</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>2.9590120809323401E-12</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2.96053431026345E-12</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.5165291394763399E-11</v>
+      </c>
+      <c r="AD9">
+        <v>174.95730892076</v>
+      </c>
+      <c r="AE9">
+        <v>299.92681617126402</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -2486,103 +2517,181 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>1.0591999999999999</v>
+        <v>2.6920776947153602</v>
       </c>
       <c r="C10">
-        <v>0.311</v>
+        <v>14.2895366556849</v>
       </c>
       <c r="D10">
-        <v>6.1999999999999998E-3</v>
+        <v>0.17769893452496299</v>
       </c>
       <c r="E10">
-        <v>26.596299999999999</v>
+        <v>8.6680606865253704</v>
       </c>
       <c r="F10">
-        <v>0.23330000000000001</v>
+        <v>5.0613951618098403</v>
       </c>
       <c r="G10">
-        <v>12.450100000000001</v>
+        <v>0.29252691445618001</v>
       </c>
       <c r="H10">
-        <v>5.2125000000000004</v>
+        <v>4.1032000655480396E-3</v>
       </c>
       <c r="I10">
-        <v>0.8256</v>
+        <v>26.593510991599601</v>
       </c>
       <c r="J10">
-        <v>59.654000000000003</v>
+        <v>1.38780147836048</v>
       </c>
       <c r="K10">
-        <v>1837.8286000000001</v>
+        <v>19.6869353756706</v>
       </c>
       <c r="L10">
-        <v>36.499499999999998</v>
+        <v>28.1324008034223</v>
       </c>
       <c r="M10">
-        <v>1033</v>
+        <v>1204.9753628677399</v>
       </c>
       <c r="N10">
-        <v>412</v>
+        <v>27.420220237680901</v>
       </c>
       <c r="O10">
-        <v>302.05119999999999</v>
+        <v>1602.2485722848701</v>
       </c>
       <c r="P10">
-        <v>0.62460000000000004</v>
+        <v>335.71637584449002</v>
       </c>
       <c r="Q10">
-        <v>57</v>
+        <v>101.752067829213</v>
       </c>
       <c r="R10">
-        <v>19.11</v>
+        <v>0.17800507967013099</v>
       </c>
       <c r="S10">
-        <v>95.838800000000006</v>
+        <v>89.698388827565694</v>
       </c>
       <c r="T10">
-        <v>82.441500000000005</v>
+        <v>59.759484990288897</v>
       </c>
       <c r="U10">
-        <v>449.95940000000002</v>
-      </c>
-      <c r="V10">
-        <v>118.9924</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="21:26" x14ac:dyDescent="0.25">
+        <v>3.25012889562813E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5.0057574517920404E-9</v>
+      </c>
+      <c r="W10">
+        <v>0.56671294619898605</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2.6403200131837699E-13</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2.9654696216638199E-12</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2.9625454011789702E-12</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>2.9637689415815699E-12</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2.9652911591002998E-12</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2.5203940835629E-11</v>
+      </c>
+      <c r="AD10">
+        <v>174.957308859015</v>
+      </c>
+      <c r="AE10">
+        <v>299.92681606679997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="21:29" x14ac:dyDescent="0.25">
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2590,6 +2699,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2B3C9C-739A-4B44-9BC5-AFAB2D3CEC17}">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25.19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2">
+        <v>57.45</v>
+      </c>
+      <c r="I2" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>94.1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>370</v>
+      </c>
+      <c r="O2" s="2">
+        <v>51.53</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>60</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>175</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <f ca="1">asm!B3*(0.9+0.2*RAND())</f>
+        <v>1.7916780190039762E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">asm!G3*(0.9+0.2*RAND())</f>
+        <v>0.19123111557758496</v>
+      </c>
+      <c r="D3" s="2">
+        <f ca="1">asm!F3*(0.9+0.2*RAND())</f>
+        <v>35.129332316668815</v>
+      </c>
+      <c r="E3" s="2">
+        <f ca="1">asm!H3*(0.9+0.2*RAND())</f>
+        <v>9.1195740865776045E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <f ca="1">asm!I3*(0.9+0.2*RAND())</f>
+        <v>15.1832810862426</v>
+      </c>
+      <c r="G3" s="2">
+        <f ca="1">asm!C3*(0.9+0.2*RAND())</f>
+        <v>75.276187482071819</v>
+      </c>
+      <c r="H3" s="2">
+        <f ca="1">asm!D3*(0.9+0.2*RAND())</f>
+        <v>57.768887571281873</v>
+      </c>
+      <c r="I3" s="2">
+        <f ca="1">asm!E3*(0.9+0.2*RAND())</f>
+        <v>27.859092046390582</v>
+      </c>
+      <c r="J3" s="2">
+        <f ca="1">asm!J3*(0.9+0.2*RAND())</f>
+        <v>98.84878474021842</v>
+      </c>
+      <c r="K3" s="2">
+        <f ca="1">asm!R3*(0.9+0.2*RAND())</f>
+        <v>25.481719112171913</v>
+      </c>
+      <c r="L3" s="2">
+        <f ca="1">asm!S3*(0.9+0.2*RAND())</f>
+        <v>105.50801169769026</v>
+      </c>
+      <c r="M3" s="2">
+        <f ca="1">asm!K3*(0.9+0.2*RAND())</f>
+        <v>48.494536616855441</v>
+      </c>
+      <c r="N3" s="2">
+        <f ca="1">asm!L3*(0.9+0.2*RAND())</f>
+        <v>236.33197785995205</v>
+      </c>
+      <c r="O3" s="2">
+        <f ca="1">asm!M3*(0.9+0.2*RAND())</f>
+        <v>30.592569019628336</v>
+      </c>
+      <c r="P3" s="2">
+        <f ca="1">asm!N3*(0.9+0.2*RAND())</f>
+        <v>0.48041291345929926</v>
+      </c>
+      <c r="Q3" s="2">
+        <f ca="1">asm!O3*(0.9+0.2*RAND())</f>
+        <v>0.13216705769589046</v>
+      </c>
+      <c r="R3" s="2">
+        <f ca="1">asm!P3*(0.9+0.2*RAND())</f>
+        <v>2.8382846709367534E-4</v>
+      </c>
+      <c r="S3" s="2">
+        <f ca="1">asm!Q3*(0.9+0.2*RAND())</f>
+        <v>5.6365882119689951E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <f ca="1">asm!V3*(0.9+0.2*RAND())</f>
+        <v>107.31900056003863</v>
+      </c>
+      <c r="U3" s="2">
+        <f ca="1">asm!W3*(0.9+0.2*RAND())</f>
+        <v>9.5687433800075418E-6</v>
+      </c>
+      <c r="V3" s="2">
+        <f ca="1">asm!X3*(0.9+0.2*RAND())</f>
+        <v>9.4100755203387006E-6</v>
+      </c>
+      <c r="W3" s="2">
+        <f ca="1">asm!Y3*(0.9+0.2*RAND())</f>
+        <v>9.7335913049304327E-6</v>
+      </c>
+      <c r="X3" s="2">
+        <f ca="1">asm!Z3*(0.9+0.2*RAND())</f>
+        <v>1.0552289664625256E-5</v>
+      </c>
+      <c r="Y3" s="2">
+        <f ca="1">asm!AA3*(0.9+0.2*RAND())</f>
+        <v>9.2240395243335979E-6</v>
+      </c>
+      <c r="Z3" s="2">
+        <f ca="1">asm!AB3*(0.9+0.2*RAND())</f>
+        <v>1.0382219900717381E-5</v>
+      </c>
+      <c r="AA3" s="2">
+        <f ca="1">asm!AC3*(0.9+0.2*RAND())</f>
+        <v>9.032140414789614E-6</v>
+      </c>
+      <c r="AB3" s="2">
+        <f ca="1">asm!AD3*(0.9+0.2*RAND())</f>
+        <v>9.2990224692106083E-6</v>
+      </c>
+      <c r="AC3" s="2">
+        <f ca="1">asm!AE3*(0.9+0.2*RAND())</f>
+        <v>9.1200365953648313E-6</v>
+      </c>
+      <c r="AD3" s="2">
+        <f ca="1">asm!T3*(0.9+0.2*RAND())</f>
+        <v>81.776310847748519</v>
+      </c>
+      <c r="AE3" s="2">
+        <f ca="1">asm!U3*(0.9+0.2*RAND())</f>
+        <v>436.80378260051486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2.38130293599478E-3</v>
+      </c>
+      <c r="C4">
+        <v>10.9957983647753</v>
+      </c>
+      <c r="D4">
+        <v>19.8069543888396</v>
+      </c>
+      <c r="E4">
+        <v>9.0605396846738906E-2</v>
+      </c>
+      <c r="F4">
+        <v>13.205049887094299</v>
+      </c>
+      <c r="G4">
+        <v>6.0779055319200204</v>
+      </c>
+      <c r="H4">
+        <v>21.7849715522688</v>
+      </c>
+      <c r="I4">
+        <v>26.592245255965601</v>
+      </c>
+      <c r="J4">
+        <v>46.372878154963701</v>
+      </c>
+      <c r="K4">
+        <v>25.292905512681699</v>
+      </c>
+      <c r="L4">
+        <v>31.316074290297301</v>
+      </c>
+      <c r="M4">
+        <v>1220.29956811582</v>
+      </c>
+      <c r="N4">
+        <v>108.065882290388</v>
+      </c>
+      <c r="O4">
+        <v>1610.5581405692101</v>
+      </c>
+      <c r="P4">
+        <v>564.90716480899005</v>
+      </c>
+      <c r="Q4">
+        <v>99.9256320231529</v>
+      </c>
+      <c r="R4">
+        <v>25.301780988790199</v>
+      </c>
+      <c r="S4">
+        <v>87.048815693203096</v>
+      </c>
+      <c r="T4">
+        <v>59.506742646549903</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD4">
+        <v>174.94898071208499</v>
+      </c>
+      <c r="AE4">
+        <v>299.91253823298899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.2557496878040798E-6</v>
+      </c>
+      <c r="C5">
+        <v>11.292854255577399</v>
+      </c>
+      <c r="D5">
+        <v>20.404032840895098</v>
+      </c>
+      <c r="E5">
+        <v>1.9971133274356099E-3</v>
+      </c>
+      <c r="F5">
+        <v>23.164668636443501</v>
+      </c>
+      <c r="G5">
+        <v>1.2151716187842001</v>
+      </c>
+      <c r="H5">
+        <v>15.268457545213501</v>
+      </c>
+      <c r="I5">
+        <v>26.592245202517699</v>
+      </c>
+      <c r="J5">
+        <v>44.114183039354899</v>
+      </c>
+      <c r="K5">
+        <v>29.4014436733707</v>
+      </c>
+      <c r="L5">
+        <v>33.8699157316643</v>
+      </c>
+      <c r="M5">
+        <v>1220.3036939748699</v>
+      </c>
+      <c r="N5">
+        <v>94.106295581927995</v>
+      </c>
+      <c r="O5">
+        <v>1610.9275515762899</v>
+      </c>
+      <c r="P5">
+        <v>564.92924243725702</v>
+      </c>
+      <c r="Q5">
+        <v>90.072916926183794</v>
+      </c>
+      <c r="R5">
+        <v>49.992481451365798</v>
+      </c>
+      <c r="S5">
+        <v>87.048653391319206</v>
+      </c>
+      <c r="T5">
+        <v>59.506739383122998</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD5">
+        <v>174.94898036374201</v>
+      </c>
+      <c r="AE5">
+        <v>299.91253759370102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1.56934509083934E-2</v>
+      </c>
+      <c r="C6">
+        <v>15.6574363031713</v>
+      </c>
+      <c r="D6">
+        <v>7.1551258303094896</v>
+      </c>
+      <c r="E6">
+        <v>1.91284471026577</v>
+      </c>
+      <c r="F6">
+        <v>6.8501333385906804</v>
+      </c>
+      <c r="G6">
+        <v>0.67841491565803802</v>
+      </c>
+      <c r="H6">
+        <v>0.88957453679085297</v>
+      </c>
+      <c r="I6">
+        <v>26.590975257061601</v>
+      </c>
+      <c r="J6">
+        <v>19.7534996347059</v>
+      </c>
+      <c r="K6">
+        <v>22.8226464142518</v>
+      </c>
+      <c r="L6">
+        <v>29.7780682793246</v>
+      </c>
+      <c r="M6">
+        <v>1228.3839064935901</v>
+      </c>
+      <c r="N6">
+        <v>49.406176969206001</v>
+      </c>
+      <c r="O6">
+        <v>1630.27095125766</v>
+      </c>
+      <c r="P6">
+        <v>577.35970102306203</v>
+      </c>
+      <c r="Q6">
+        <v>105.941062442515</v>
+      </c>
+      <c r="R6">
+        <v>18.050081225756099</v>
+      </c>
+      <c r="S6">
+        <v>88.707212373626703</v>
+      </c>
+      <c r="T6">
+        <v>59.5038724824065</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD6">
+        <v>174.940625563791</v>
+      </c>
+      <c r="AE6">
+        <v>299.89821486787002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>2.2936090102531099E-4</v>
+      </c>
+      <c r="C7">
+        <v>16.801650456844499</v>
+      </c>
+      <c r="D7">
+        <v>7.0124321442111297</v>
+      </c>
+      <c r="E7">
+        <v>0.66358522148304699</v>
+      </c>
+      <c r="F7">
+        <v>5.2033735431291896</v>
+      </c>
+      <c r="G7">
+        <v>0.44535123544799099</v>
+      </c>
+      <c r="H7">
+        <v>0.25973594228931701</v>
+      </c>
+      <c r="I7">
+        <v>26.590975225446499</v>
+      </c>
+      <c r="J7">
+        <v>19.9225117507475</v>
+      </c>
+      <c r="K7">
+        <v>22.1559937451438</v>
+      </c>
+      <c r="L7">
+        <v>29.363545597454799</v>
+      </c>
+      <c r="M7">
+        <v>1228.5859675238</v>
+      </c>
+      <c r="N7">
+        <v>45.116182954239598</v>
+      </c>
+      <c r="O7">
+        <v>1632.14290273388</v>
+      </c>
+      <c r="P7">
+        <v>578.77010033953798</v>
+      </c>
+      <c r="Q7">
+        <v>107.547337517225</v>
+      </c>
+      <c r="R7">
+        <v>16.159327682034</v>
+      </c>
+      <c r="S7">
+        <v>88.687031841484796</v>
+      </c>
+      <c r="T7">
+        <v>59.503870622887199</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD7">
+        <v>174.94062537496501</v>
+      </c>
+      <c r="AE7">
+        <v>299.89821451696002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>3.1654230951006199</v>
+      </c>
+      <c r="C8">
+        <v>14.5877047954561</v>
+      </c>
+      <c r="D8">
+        <v>2.8651195174663702</v>
+      </c>
+      <c r="E8">
+        <v>4.3506500738159701</v>
+      </c>
+      <c r="F8">
+        <v>0.34993623591341599</v>
+      </c>
+      <c r="G8">
+        <v>0.32975071885405399</v>
+      </c>
+      <c r="H8">
+        <v>2.2127572209832701E-2</v>
+      </c>
+      <c r="I8">
+        <v>26.590975163793999</v>
+      </c>
+      <c r="J8">
+        <v>3.3182043765774099</v>
+      </c>
+      <c r="K8">
+        <v>20.168031279554199</v>
+      </c>
+      <c r="L8">
+        <v>28.127543059567</v>
+      </c>
+      <c r="M8">
+        <v>1230.0264270426801</v>
+      </c>
+      <c r="N8">
+        <v>37.933425344216197</v>
+      </c>
+      <c r="O8">
+        <v>1632.77384197943</v>
+      </c>
+      <c r="P8">
+        <v>582.62953863750204</v>
+      </c>
+      <c r="Q8">
+        <v>112.331461606419</v>
+      </c>
+      <c r="R8">
+        <v>5.7066229746039401</v>
+      </c>
+      <c r="S8">
+        <v>89.414259942305193</v>
+      </c>
+      <c r="T8">
+        <v>59.503866904899802</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD8">
+        <v>174.94062494867001</v>
+      </c>
+      <c r="AE8">
+        <v>299.89821377600401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>2.9205773809490201</v>
+      </c>
+      <c r="C9">
+        <v>14.329347580465001</v>
+      </c>
+      <c r="D9">
+        <v>0.90010130417779499</v>
+      </c>
+      <c r="E9">
+        <v>6.2914832700551298</v>
+      </c>
+      <c r="F9">
+        <v>4.7191088737661202E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.34043097526072502</v>
+      </c>
+      <c r="H9">
+        <v>5.6599518455539202E-3</v>
+      </c>
+      <c r="I9">
+        <v>26.5909751000722</v>
+      </c>
+      <c r="J9">
+        <v>1.5002668306085301</v>
+      </c>
+      <c r="K9">
+        <v>20.031315881644598</v>
+      </c>
+      <c r="L9">
+        <v>28.042345705244198</v>
+      </c>
+      <c r="M9">
+        <v>1231.46365745354</v>
+      </c>
+      <c r="N9">
+        <v>32.951896249138301</v>
+      </c>
+      <c r="O9">
+        <v>1631.90642515526</v>
+      </c>
+      <c r="P9">
+        <v>582.86396522790301</v>
+      </c>
+      <c r="Q9">
+        <v>112.671465839237</v>
+      </c>
+      <c r="R9">
+        <v>1.8253305592254101</v>
+      </c>
+      <c r="S9">
+        <v>89.714357258421899</v>
+      </c>
+      <c r="T9">
+        <v>59.5038631684859</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD9">
+        <v>174.94062453605801</v>
+      </c>
+      <c r="AE9">
+        <v>299.89821304423799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2.1790862563003301</v>
+      </c>
+      <c r="C10">
+        <v>14.309715064876899</v>
+      </c>
+      <c r="D10">
+        <v>0.25672090919658802</v>
+      </c>
+      <c r="E10">
+        <v>7.08293547823836</v>
+      </c>
+      <c r="F10">
+        <v>9.7752745558240997E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.31632733164228799</v>
+      </c>
+      <c r="H10">
+        <v>4.1532584250470097E-3</v>
+      </c>
+      <c r="I10">
+        <v>26.590975034408199</v>
+      </c>
+      <c r="J10">
+        <v>1.5043216049116901</v>
+      </c>
+      <c r="K10">
+        <v>20.020837362491399</v>
+      </c>
+      <c r="L10">
+        <v>28.0356208318806</v>
+      </c>
+      <c r="M10">
+        <v>1232.8825397058399</v>
+      </c>
+      <c r="N10">
+        <v>29.522153111489501</v>
+      </c>
+      <c r="O10">
+        <v>1630.12658236577</v>
+      </c>
+      <c r="P10">
+        <v>581.55613719121197</v>
+      </c>
+      <c r="Q10">
+        <v>112.708429095398</v>
+      </c>
+      <c r="R10">
+        <v>0.52136339827321798</v>
+      </c>
+      <c r="S10">
+        <v>89.747600253328599</v>
+      </c>
+      <c r="T10">
+        <v>59.503859452837197</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD10">
+        <v>174.940624136053</v>
+      </c>
+      <c r="AE10">
+        <v>299.89821230976298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A4E84-05F6-482F-94AF-2C8CE149BF8E}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
@@ -2812,7 +3926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADEEAAA-987D-43CA-A836-37D3B86B2368}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
@@ -3090,7 +4204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA96946B-17C1-41F5-A32B-CE0A064A22AA}">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -3278,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AABAC6-0393-4FAA-A818-3D4621797738}">
   <dimension ref="B1:H13"/>
   <sheetViews>

--- a/exposan/bsm2/data/bsm2p_init.xlsx
+++ b/exposan/bsm2/data/bsm2p_init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\bsm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C58A187-3064-45DD-A77F-D6F43FE36942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64897C-ACF1-4C9F-8C51-5199FABA01BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="asm" sheetId="1" r:id="rId1"/>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67887DCA-7CBD-4529-953E-A8DE039190F5}">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,16 +1601,20 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="21:26" x14ac:dyDescent="0.25">
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F10 F53:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1823,123 +1827,123 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">asm!B3*(0.9+0.2*RAND())</f>
-        <v>1.5607699863394215E-2</v>
+        <v>1.834776603481339E-2</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">asm!G3*(0.9+0.2*RAND())</f>
-        <v>0.2091565502455541</v>
+        <v>0.20352904121075449</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">asm!F3*(0.9+0.2*RAND())</f>
-        <v>35.261357643400416</v>
+        <v>34.093819491267645</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">asm!H3*(0.9+0.2*RAND())</f>
-        <v>8.8950753869891361E-2</v>
+        <v>8.4114727722113466E-2</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">asm!I3*(0.9+0.2*RAND())</f>
-        <v>15.203591699274758</v>
+        <v>14.024593241577948</v>
       </c>
       <c r="G3" s="2">
         <f ca="1">asm!C3*(0.9+0.2*RAND())</f>
-        <v>73.749867458966563</v>
+        <v>65.27490480782366</v>
       </c>
       <c r="H3" s="2">
         <f ca="1">asm!D3*(0.9+0.2*RAND())</f>
-        <v>57.536300187276744</v>
+        <v>60.321373367513878</v>
       </c>
       <c r="I3" s="2">
         <f ca="1">asm!E3*(0.9+0.2*RAND())</f>
-        <v>28.511921509327713</v>
+        <v>26.728898530019794</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">asm!J3*(0.9+0.2*RAND())</f>
-        <v>82.972333304834748</v>
+        <v>88.166804194376695</v>
       </c>
       <c r="K3" s="2">
         <f ca="1">asm!R3*(0.9+0.2*RAND())</f>
-        <v>22.616725696363588</v>
+        <v>25.337783919953875</v>
       </c>
       <c r="L3" s="2">
         <f ca="1">asm!S3*(0.9+0.2*RAND())</f>
-        <v>106.13250637132549</v>
+        <v>99.147664587790956</v>
       </c>
       <c r="M3" s="2">
         <f ca="1">asm!K3*(0.9+0.2*RAND())</f>
-        <v>47.747736477077382</v>
+        <v>45.575935491214508</v>
       </c>
       <c r="N3" s="2">
         <f ca="1">asm!L3*(0.9+0.2*RAND())</f>
-        <v>236.9865770076527</v>
+        <v>231.40428469026838</v>
       </c>
       <c r="O3" s="2">
         <f ca="1">asm!M3*(0.9+0.2*RAND())</f>
-        <v>30.499648718087236</v>
+        <v>34.688824527858571</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">asm!N3*(0.9+0.2*RAND())</f>
-        <v>0.5096348807633384</v>
+        <v>0.44977406998682851</v>
       </c>
       <c r="Q3" s="2">
         <f ca="1">asm!O3*(0.9+0.2*RAND())</f>
-        <v>0.14104728501674885</v>
+        <v>0.12547245996125422</v>
       </c>
       <c r="R3" s="2">
         <f ca="1">asm!P3*(0.9+0.2*RAND())</f>
-        <v>2.7902005691226315E-4</v>
+        <v>3.1433096879288492E-4</v>
       </c>
       <c r="S3" s="2">
         <f ca="1">asm!Q3*(0.9+0.2*RAND())</f>
-        <v>4.9666389892789327E-2</v>
+        <v>5.6052706964935056E-2</v>
       </c>
       <c r="T3" s="2">
         <f ca="1">asm!V3*(0.9+0.2*RAND())</f>
-        <v>107.14046234867331</v>
+        <v>114.52318774383889</v>
       </c>
       <c r="U3" s="2">
         <f ca="1">asm!W3*(0.9+0.2*RAND())</f>
-        <v>1.0218570156243193E-5</v>
+        <v>1.065943328281399E-5</v>
       </c>
       <c r="V3" s="2">
         <f ca="1">asm!X3*(0.9+0.2*RAND())</f>
-        <v>9.1684845600850305E-6</v>
+        <v>9.9688222069562498E-6</v>
       </c>
       <c r="W3" s="2">
         <f ca="1">asm!Y3*(0.9+0.2*RAND())</f>
-        <v>1.0420116532394427E-5</v>
+        <v>1.0386471955303103E-5</v>
       </c>
       <c r="X3" s="2">
         <f ca="1">asm!Z3*(0.9+0.2*RAND())</f>
-        <v>9.2789079022591763E-6</v>
+        <v>1.005866619014316E-5</v>
       </c>
       <c r="Y3" s="2">
         <f ca="1">asm!AA3*(0.9+0.2*RAND())</f>
-        <v>1.0486397488525624E-5</v>
+        <v>1.0482076362857492E-5</v>
       </c>
       <c r="Z3" s="2">
         <f ca="1">asm!AB3*(0.9+0.2*RAND())</f>
-        <v>9.2232292058047584E-6</v>
+        <v>1.0785264578279019E-5</v>
       </c>
       <c r="AA3" s="2">
         <f ca="1">asm!AC3*(0.9+0.2*RAND())</f>
-        <v>9.5152943119096189E-6</v>
+        <v>1.0184953508758755E-5</v>
       </c>
       <c r="AB3" s="2">
         <f ca="1">asm!AD3*(0.9+0.2*RAND())</f>
-        <v>1.0012980145683672E-5</v>
+        <v>9.694990503773454E-6</v>
       </c>
       <c r="AC3" s="2">
         <f ca="1">asm!AE3*(0.9+0.2*RAND())</f>
-        <v>1.0956904666274584E-5</v>
+        <v>1.0227772459737019E-5</v>
       </c>
       <c r="AD3" s="2">
         <f ca="1">asm!T3*(0.9+0.2*RAND())</f>
-        <v>83.895198675270834</v>
+        <v>82.177359755690503</v>
       </c>
       <c r="AE3" s="2">
         <f ca="1">asm!U3*(0.9+0.2*RAND())</f>
-        <v>472.01617630405178</v>
+        <v>456.38051636357403</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -2906,123 +2910,123 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">asm!B3*(0.9+0.2*RAND())</f>
-        <v>1.7916780190039762E-2</v>
+        <v>1.6605845549215039E-2</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">asm!G3*(0.9+0.2*RAND())</f>
-        <v>0.19123111557758496</v>
+        <v>0.20062873163082351</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">asm!F3*(0.9+0.2*RAND())</f>
-        <v>35.129332316668815</v>
+        <v>35.999017114369927</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">asm!H3*(0.9+0.2*RAND())</f>
-        <v>9.1195740865776045E-2</v>
+        <v>8.9098630371433424E-2</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">asm!I3*(0.9+0.2*RAND())</f>
-        <v>15.1832810862426</v>
+        <v>13.191371074451588</v>
       </c>
       <c r="G3" s="2">
         <f ca="1">asm!C3*(0.9+0.2*RAND())</f>
-        <v>75.276187482071819</v>
+        <v>66.807836355146804</v>
       </c>
       <c r="H3" s="2">
         <f ca="1">asm!D3*(0.9+0.2*RAND())</f>
-        <v>57.768887571281873</v>
+        <v>60.23372560814196</v>
       </c>
       <c r="I3" s="2">
         <f ca="1">asm!E3*(0.9+0.2*RAND())</f>
-        <v>27.859092046390582</v>
+        <v>25.754579560263846</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">asm!J3*(0.9+0.2*RAND())</f>
-        <v>98.84878474021842</v>
+        <v>96.229669213502177</v>
       </c>
       <c r="K3" s="2">
         <f ca="1">asm!R3*(0.9+0.2*RAND())</f>
-        <v>25.481719112171913</v>
+        <v>23.186214427926338</v>
       </c>
       <c r="L3" s="2">
         <f ca="1">asm!S3*(0.9+0.2*RAND())</f>
-        <v>105.50801169769026</v>
+        <v>99.185234832237654</v>
       </c>
       <c r="M3" s="2">
         <f ca="1">asm!K3*(0.9+0.2*RAND())</f>
-        <v>48.494536616855441</v>
+        <v>50.60761474672001</v>
       </c>
       <c r="N3" s="2">
         <f ca="1">asm!L3*(0.9+0.2*RAND())</f>
-        <v>236.33197785995205</v>
+        <v>222.64253981937415</v>
       </c>
       <c r="O3" s="2">
         <f ca="1">asm!M3*(0.9+0.2*RAND())</f>
-        <v>30.592569019628336</v>
+        <v>35.176929270351756</v>
       </c>
       <c r="P3" s="2">
         <f ca="1">asm!N3*(0.9+0.2*RAND())</f>
-        <v>0.48041291345929926</v>
+        <v>0.44798733596289314</v>
       </c>
       <c r="Q3" s="2">
         <f ca="1">asm!O3*(0.9+0.2*RAND())</f>
-        <v>0.13216705769589046</v>
+        <v>0.13480487470970282</v>
       </c>
       <c r="R3" s="2">
         <f ca="1">asm!P3*(0.9+0.2*RAND())</f>
-        <v>2.8382846709367534E-4</v>
+        <v>2.8071789931399696E-4</v>
       </c>
       <c r="S3" s="2">
         <f ca="1">asm!Q3*(0.9+0.2*RAND())</f>
-        <v>5.6365882119689951E-2</v>
+        <v>4.7990366091751765E-2</v>
       </c>
       <c r="T3" s="2">
         <f ca="1">asm!V3*(0.9+0.2*RAND())</f>
-        <v>107.31900056003863</v>
+        <v>129.98811667440827</v>
       </c>
       <c r="U3" s="2">
         <f ca="1">asm!W3*(0.9+0.2*RAND())</f>
-        <v>9.5687433800075418E-6</v>
+        <v>9.1310387660512393E-6</v>
       </c>
       <c r="V3" s="2">
         <f ca="1">asm!X3*(0.9+0.2*RAND())</f>
-        <v>9.4100755203387006E-6</v>
+        <v>9.2125819246362443E-6</v>
       </c>
       <c r="W3" s="2">
         <f ca="1">asm!Y3*(0.9+0.2*RAND())</f>
-        <v>9.7335913049304327E-6</v>
+        <v>9.7105957922881536E-6</v>
       </c>
       <c r="X3" s="2">
         <f ca="1">asm!Z3*(0.9+0.2*RAND())</f>
-        <v>1.0552289664625256E-5</v>
+        <v>1.0438947882254162E-5</v>
       </c>
       <c r="Y3" s="2">
         <f ca="1">asm!AA3*(0.9+0.2*RAND())</f>
-        <v>9.2240395243335979E-6</v>
+        <v>1.0649566815099127E-5</v>
       </c>
       <c r="Z3" s="2">
         <f ca="1">asm!AB3*(0.9+0.2*RAND())</f>
-        <v>1.0382219900717381E-5</v>
+        <v>1.0526176446337036E-5</v>
       </c>
       <c r="AA3" s="2">
         <f ca="1">asm!AC3*(0.9+0.2*RAND())</f>
-        <v>9.032140414789614E-6</v>
+        <v>9.790712677773969E-6</v>
       </c>
       <c r="AB3" s="2">
         <f ca="1">asm!AD3*(0.9+0.2*RAND())</f>
-        <v>9.2990224692106083E-6</v>
+        <v>1.0759239149450736E-5</v>
       </c>
       <c r="AC3" s="2">
         <f ca="1">asm!AE3*(0.9+0.2*RAND())</f>
-        <v>9.1200365953648313E-6</v>
+        <v>9.614106576834536E-6</v>
       </c>
       <c r="AD3" s="2">
         <f ca="1">asm!T3*(0.9+0.2*RAND())</f>
-        <v>81.776310847748519</v>
+        <v>85.353371014958924</v>
       </c>
       <c r="AE3" s="2">
         <f ca="1">asm!U3*(0.9+0.2*RAND())</f>
-        <v>436.80378260051486</v>
+        <v>449.49929251983497</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
